--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Angpt1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Angpt1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Angpt1</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Angpt1</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>11.563232</v>
+        <v>0.2366953333333333</v>
       </c>
       <c r="H2">
-        <v>34.689696</v>
+        <v>0.710086</v>
       </c>
       <c r="I2">
-        <v>0.6861949287396442</v>
+        <v>0.01942010494447644</v>
       </c>
       <c r="J2">
-        <v>0.6861949287396443</v>
+        <v>0.01942010494447644</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>1096.192670678432</v>
+        <v>41.86077621501244</v>
       </c>
       <c r="R2">
-        <v>9865.734036105887</v>
+        <v>376.746985935112</v>
       </c>
       <c r="S2">
-        <v>0.1154154873284685</v>
+        <v>0.005184606190529288</v>
       </c>
       <c r="T2">
-        <v>0.1154154873284685</v>
+        <v>0.005184606190529288</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>11.563232</v>
+        <v>0.2366953333333333</v>
       </c>
       <c r="H3">
-        <v>34.689696</v>
+        <v>0.710086</v>
       </c>
       <c r="I3">
-        <v>0.6861949287396442</v>
+        <v>0.01942010494447644</v>
       </c>
       <c r="J3">
-        <v>0.6861949287396443</v>
+        <v>0.01942010494447644</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>1684.084865310805</v>
+        <v>34.47263088350756</v>
       </c>
       <c r="R3">
-        <v>15156.76378779725</v>
+        <v>310.253677951568</v>
       </c>
       <c r="S3">
-        <v>0.1773132412133807</v>
+        <v>0.004269558083788419</v>
       </c>
       <c r="T3">
-        <v>0.1773132412133807</v>
+        <v>0.004269558083788419</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>11.563232</v>
+        <v>0.2366953333333333</v>
       </c>
       <c r="H4">
-        <v>34.689696</v>
+        <v>0.710086</v>
       </c>
       <c r="I4">
-        <v>0.6861949287396442</v>
+        <v>0.01942010494447644</v>
       </c>
       <c r="J4">
-        <v>0.6861949287396443</v>
+        <v>0.01942010494447644</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>841.5254328438613</v>
+        <v>19.88835220880445</v>
       </c>
       <c r="R4">
-        <v>7573.728895594752</v>
+        <v>178.99516987924</v>
       </c>
       <c r="S4">
-        <v>0.08860218694115522</v>
+        <v>0.002463243238767633</v>
       </c>
       <c r="T4">
-        <v>0.08860218694115524</v>
+        <v>0.002463243238767633</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>11.563232</v>
+        <v>0.2366953333333333</v>
       </c>
       <c r="H5">
-        <v>34.689696</v>
+        <v>0.710086</v>
       </c>
       <c r="I5">
-        <v>0.6861949287396442</v>
+        <v>0.01942010494447644</v>
       </c>
       <c r="J5">
-        <v>0.6861949287396443</v>
+        <v>0.01942010494447644</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>1339.437289268533</v>
+        <v>20.10224486601356</v>
       </c>
       <c r="R5">
-        <v>12054.9356034168</v>
+        <v>180.920203794122</v>
       </c>
       <c r="S5">
-        <v>0.1410261276342725</v>
+        <v>0.002489734605984026</v>
       </c>
       <c r="T5">
-        <v>0.1410261276342725</v>
+        <v>0.002489734605984026</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>11.563232</v>
+        <v>0.2366953333333333</v>
       </c>
       <c r="H6">
-        <v>34.689696</v>
+        <v>0.710086</v>
       </c>
       <c r="I6">
-        <v>0.6861949287396442</v>
+        <v>0.01942010494447644</v>
       </c>
       <c r="J6">
-        <v>0.6861949287396443</v>
+        <v>0.01942010494447644</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>672.8284621755519</v>
+        <v>15.14164277045622</v>
       </c>
       <c r="R6">
-        <v>6055.456159579967</v>
+        <v>136.274784934106</v>
       </c>
       <c r="S6">
-        <v>0.0708404890195032</v>
+        <v>0.001875346372921218</v>
       </c>
       <c r="T6">
-        <v>0.07084048901950322</v>
+        <v>0.001875346372921218</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>11.563232</v>
+        <v>0.2366953333333333</v>
       </c>
       <c r="H7">
-        <v>34.689696</v>
+        <v>0.710086</v>
       </c>
       <c r="I7">
-        <v>0.6861949287396442</v>
+        <v>0.01942010494447644</v>
       </c>
       <c r="J7">
-        <v>0.6861949287396443</v>
+        <v>0.01942010494447644</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>883.2702344193067</v>
+        <v>25.33327611381089</v>
       </c>
       <c r="R7">
-        <v>7949.43210977376</v>
+        <v>227.999485024298</v>
       </c>
       <c r="S7">
-        <v>0.09299739660286403</v>
+        <v>0.003137616452485857</v>
       </c>
       <c r="T7">
-        <v>0.09299739660286407</v>
+        <v>0.003137616452485857</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.233789333333333</v>
+        <v>11.563232</v>
       </c>
       <c r="H8">
-        <v>15.701368</v>
+        <v>34.689696</v>
       </c>
       <c r="I8">
-        <v>0.3105878787716943</v>
+        <v>0.9487266849536318</v>
       </c>
       <c r="J8">
-        <v>0.3105878787716944</v>
+        <v>0.9487266849536319</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>496.1624489653893</v>
+        <v>2045.016520847915</v>
       </c>
       <c r="R8">
-        <v>4465.462040688503</v>
+        <v>18405.14868763123</v>
       </c>
       <c r="S8">
-        <v>0.05223974979324178</v>
+        <v>0.2532825779260245</v>
       </c>
       <c r="T8">
-        <v>0.0522397497932418</v>
+        <v>0.2532825779260246</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.233789333333333</v>
+        <v>11.563232</v>
       </c>
       <c r="H9">
-        <v>15.701368</v>
+        <v>34.689696</v>
       </c>
       <c r="I9">
-        <v>0.3105878787716943</v>
+        <v>0.9487266849536318</v>
       </c>
       <c r="J9">
-        <v>0.3105878787716944</v>
+        <v>0.9487266849536319</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
-        <v>762.2562104169315</v>
+        <v>1684.084865310805</v>
       </c>
       <c r="R9">
-        <v>6860.305893752384</v>
+        <v>15156.76378779725</v>
       </c>
       <c r="S9">
-        <v>0.08025612134404569</v>
+        <v>0.2085799071956957</v>
       </c>
       <c r="T9">
-        <v>0.08025612134404572</v>
+        <v>0.2085799071956957</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.233789333333333</v>
+        <v>11.563232</v>
       </c>
       <c r="H10">
-        <v>15.701368</v>
+        <v>34.689696</v>
       </c>
       <c r="I10">
-        <v>0.3105878787716943</v>
+        <v>0.9487266849536318</v>
       </c>
       <c r="J10">
-        <v>0.3105878787716944</v>
+        <v>0.9487266849536319</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>380.8940989981795</v>
+        <v>971.6018792996266</v>
       </c>
       <c r="R10">
-        <v>3428.046890983616</v>
+        <v>8744.416913696639</v>
       </c>
       <c r="S10">
-        <v>0.04010342272148688</v>
+        <v>0.1203363523952093</v>
       </c>
       <c r="T10">
-        <v>0.04010342272148688</v>
+        <v>0.1203363523952093</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.233789333333333</v>
+        <v>11.563232</v>
       </c>
       <c r="H11">
-        <v>15.701368</v>
+        <v>34.689696</v>
       </c>
       <c r="I11">
-        <v>0.3105878787716943</v>
+        <v>0.9487266849536318</v>
       </c>
       <c r="J11">
-        <v>0.3105878787716944</v>
+        <v>0.9487266849536319</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>606.2606542221555</v>
+        <v>982.0511365096214</v>
       </c>
       <c r="R11">
-        <v>5456.3458879994</v>
+        <v>8838.460228586593</v>
       </c>
       <c r="S11">
-        <v>0.06383172477500759</v>
+        <v>0.1216305301079949</v>
       </c>
       <c r="T11">
-        <v>0.06383172477500761</v>
+        <v>0.1216305301079949</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.233789333333333</v>
+        <v>11.563232</v>
       </c>
       <c r="H12">
-        <v>15.701368</v>
+        <v>34.689696</v>
       </c>
       <c r="I12">
-        <v>0.3105878787716943</v>
+        <v>0.9487266849536318</v>
       </c>
       <c r="J12">
-        <v>0.3105878787716944</v>
+        <v>0.9487266849536319</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>304.5379032866826</v>
+        <v>739.7117879351573</v>
       </c>
       <c r="R12">
-        <v>2740.841129580144</v>
+        <v>6657.406091416416</v>
       </c>
       <c r="S12">
-        <v>0.0320640626944433</v>
+        <v>0.09161593887407957</v>
       </c>
       <c r="T12">
-        <v>0.03206406269444331</v>
+        <v>0.09161593887407958</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.233789333333333</v>
+        <v>11.563232</v>
       </c>
       <c r="H13">
-        <v>15.701368</v>
+        <v>34.689696</v>
       </c>
       <c r="I13">
-        <v>0.3105878787716943</v>
+        <v>0.9487266849536318</v>
       </c>
       <c r="J13">
-        <v>0.3105878787716944</v>
+        <v>0.9487266849536319</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>399.7887728408978</v>
+        <v>1237.601708908725</v>
       </c>
       <c r="R13">
-        <v>3598.09895556808</v>
+        <v>11138.41538017853</v>
       </c>
       <c r="S13">
-        <v>0.04209279744346903</v>
+        <v>0.1532813784546278</v>
       </c>
       <c r="T13">
-        <v>0.04209279744346905</v>
+        <v>0.1532813784546278</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.04835900000000001</v>
+        <v>0.3882320000000001</v>
       </c>
       <c r="H14">
-        <v>0.145077</v>
+        <v>1.164696</v>
       </c>
       <c r="I14">
-        <v>0.002869759990884941</v>
+        <v>0.03185321010189179</v>
       </c>
       <c r="J14">
-        <v>0.002869759990884941</v>
+        <v>0.03185321010189179</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>4.584425994509</v>
+        <v>68.66080814791468</v>
       </c>
       <c r="R14">
-        <v>41.259833950581</v>
+        <v>617.9472733312321</v>
       </c>
       <c r="S14">
-        <v>0.0004826831764438703</v>
+        <v>0.008503885573979349</v>
       </c>
       <c r="T14">
-        <v>0.0004826831764438704</v>
+        <v>0.008503885573979349</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.04835900000000001</v>
+        <v>0.3882320000000001</v>
       </c>
       <c r="H15">
-        <v>0.145077</v>
+        <v>1.164696</v>
       </c>
       <c r="I15">
-        <v>0.002869759990884941</v>
+        <v>0.03185321010189179</v>
       </c>
       <c r="J15">
-        <v>0.002869759990884941</v>
+        <v>0.03185321010189179</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>7.043070657197333</v>
+        <v>56.54263751080534</v>
       </c>
       <c r="R15">
-        <v>63.38763591477601</v>
+        <v>508.8837375972481</v>
       </c>
       <c r="S15">
-        <v>0.0007415479540528009</v>
+        <v>0.007003006990640623</v>
       </c>
       <c r="T15">
-        <v>0.0007415479540528011</v>
+        <v>0.007003006990640623</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.04835900000000001</v>
+        <v>0.3882320000000001</v>
       </c>
       <c r="H16">
-        <v>0.145077</v>
+        <v>1.164696</v>
       </c>
       <c r="I16">
-        <v>0.002869759990884941</v>
+        <v>0.03185321010189179</v>
       </c>
       <c r="J16">
-        <v>0.002869759990884941</v>
+        <v>0.03185321010189179</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>3.519373165469334</v>
+        <v>32.62123779962668</v>
       </c>
       <c r="R16">
-        <v>31.674358489224</v>
+        <v>293.5911401966401</v>
       </c>
       <c r="S16">
-        <v>0.0003705463280756908</v>
+        <v>0.004040256457977918</v>
       </c>
       <c r="T16">
-        <v>0.0003705463280756908</v>
+        <v>0.004040256457977918</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.04835900000000001</v>
+        <v>0.3882320000000001</v>
       </c>
       <c r="H17">
-        <v>0.145077</v>
+        <v>1.164696</v>
       </c>
       <c r="I17">
-        <v>0.002869759990884941</v>
+        <v>0.03185321010189179</v>
       </c>
       <c r="J17">
-        <v>0.002869759990884941</v>
+        <v>0.03185321010189179</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>5.601707885108334</v>
+        <v>32.97206843462135</v>
       </c>
       <c r="R17">
-        <v>50.41537096597501</v>
+        <v>296.7486159115921</v>
       </c>
       <c r="S17">
-        <v>0.0005897903377071206</v>
+        <v>0.004083708081346726</v>
       </c>
       <c r="T17">
-        <v>0.0005897903377071208</v>
+        <v>0.004083708081346726</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.04835900000000001</v>
+        <v>0.3882320000000001</v>
       </c>
       <c r="H18">
-        <v>0.145077</v>
+        <v>1.164696</v>
       </c>
       <c r="I18">
-        <v>0.002869759990884941</v>
+        <v>0.03185321010189179</v>
       </c>
       <c r="J18">
-        <v>0.002869759990884941</v>
+        <v>0.03185321010189179</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>2.813859620074</v>
+        <v>24.83559846015734</v>
       </c>
       <c r="R18">
-        <v>25.324736580666</v>
+        <v>223.520386141416</v>
       </c>
       <c r="S18">
-        <v>0.0002962645053298382</v>
+        <v>0.003075977302968726</v>
       </c>
       <c r="T18">
-        <v>0.0002962645053298383</v>
+        <v>0.003075977302968726</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.04835900000000001</v>
+        <v>0.3882320000000001</v>
       </c>
       <c r="H19">
-        <v>0.145077</v>
+        <v>1.164696</v>
       </c>
       <c r="I19">
-        <v>0.002869759990884941</v>
+        <v>0.03185321010189179</v>
       </c>
       <c r="J19">
-        <v>0.002869759990884941</v>
+        <v>0.03185321010189179</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>3.693955571096667</v>
+        <v>41.55210123372535</v>
       </c>
       <c r="R19">
-        <v>33.24560013987001</v>
+        <v>373.9689111035281</v>
       </c>
       <c r="S19">
-        <v>0.0003889276892756197</v>
+        <v>0.005146375694978451</v>
       </c>
       <c r="T19">
-        <v>0.0003889276892756198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.005854666666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.017564</v>
-      </c>
-      <c r="I20">
-        <v>0.0003474324977763746</v>
-      </c>
-      <c r="J20">
-        <v>0.0003474324977763746</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>94.79985099999999</v>
-      </c>
-      <c r="N20">
-        <v>284.399553</v>
-      </c>
-      <c r="O20">
-        <v>0.1681963571786456</v>
-      </c>
-      <c r="P20">
-        <v>0.1681963571786456</v>
-      </c>
-      <c r="Q20">
-        <v>0.5550215276546666</v>
-      </c>
-      <c r="R20">
-        <v>4.995193748892</v>
-      </c>
-      <c r="S20">
-        <v>5.84368804914641E-05</v>
-      </c>
-      <c r="T20">
-        <v>5.843688049146412E-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.005854666666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.017564</v>
-      </c>
-      <c r="I21">
-        <v>0.0003474324977763746</v>
-      </c>
-      <c r="J21">
-        <v>0.0003474324977763746</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>145.6413626666667</v>
-      </c>
-      <c r="N21">
-        <v>436.924088</v>
-      </c>
-      <c r="O21">
-        <v>0.2584006873076977</v>
-      </c>
-      <c r="P21">
-        <v>0.2584006873076977</v>
-      </c>
-      <c r="Q21">
-        <v>0.8526816312924443</v>
-      </c>
-      <c r="R21">
-        <v>7.674134681631999</v>
-      </c>
-      <c r="S21">
-        <v>8.977679621844533E-05</v>
-      </c>
-      <c r="T21">
-        <v>8.977679621844537E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.005854666666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.017564</v>
-      </c>
-      <c r="I22">
-        <v>0.0003474324977763746</v>
-      </c>
-      <c r="J22">
-        <v>0.0003474324977763746</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>72.77597066666667</v>
-      </c>
-      <c r="N22">
-        <v>218.327912</v>
-      </c>
-      <c r="O22">
-        <v>0.1291210168281098</v>
-      </c>
-      <c r="P22">
-        <v>0.1291210168281098</v>
-      </c>
-      <c r="Q22">
-        <v>0.4260790495964444</v>
-      </c>
-      <c r="R22">
-        <v>3.834711446368</v>
-      </c>
-      <c r="S22">
-        <v>4.48608373920155E-05</v>
-      </c>
-      <c r="T22">
-        <v>4.486083739201551E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.005854666666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.017564</v>
-      </c>
-      <c r="I23">
-        <v>0.0003474324977763746</v>
-      </c>
-      <c r="J23">
-        <v>0.0003474324977763746</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>115.8358916666667</v>
-      </c>
-      <c r="N23">
-        <v>347.507675</v>
-      </c>
-      <c r="O23">
-        <v>0.2055190467427377</v>
-      </c>
-      <c r="P23">
-        <v>0.2055190467427377</v>
-      </c>
-      <c r="Q23">
-        <v>0.6781805337444444</v>
-      </c>
-      <c r="R23">
-        <v>6.1036248037</v>
-      </c>
-      <c r="S23">
-        <v>7.140399575044883E-05</v>
-      </c>
-      <c r="T23">
-        <v>7.140399575044886E-05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.005854666666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.017564</v>
-      </c>
-      <c r="I24">
-        <v>0.0003474324977763746</v>
-      </c>
-      <c r="J24">
-        <v>0.0003474324977763746</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>58.18688599999999</v>
-      </c>
-      <c r="N24">
-        <v>174.560658</v>
-      </c>
-      <c r="O24">
-        <v>0.10323668399826</v>
-      </c>
-      <c r="P24">
-        <v>0.10323668399826</v>
-      </c>
-      <c r="Q24">
-        <v>0.3406648219013333</v>
-      </c>
-      <c r="R24">
-        <v>3.065983397112</v>
-      </c>
-      <c r="S24">
-        <v>3.586777898366576E-05</v>
-      </c>
-      <c r="T24">
-        <v>3.586777898366577E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.005854666666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.017564</v>
-      </c>
-      <c r="I25">
-        <v>0.0003474324977763746</v>
-      </c>
-      <c r="J25">
-        <v>0.0003474324977763746</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>76.38610333333334</v>
-      </c>
-      <c r="N25">
-        <v>229.15831</v>
-      </c>
-      <c r="O25">
-        <v>0.1355262079445491</v>
-      </c>
-      <c r="P25">
-        <v>0.1355262079445491</v>
-      </c>
-      <c r="Q25">
-        <v>0.4472151729822222</v>
-      </c>
-      <c r="R25">
-        <v>4.02493655684</v>
-      </c>
-      <c r="S25">
-        <v>4.708620894033502E-05</v>
-      </c>
-      <c r="T25">
-        <v>4.708620894033504E-05</v>
+        <v>0.005146375694978451</v>
       </c>
     </row>
   </sheetData>
